--- a/views/laporan2/kabupaten.xlsx
+++ b/views/laporan2/kabupaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\yii2_laporan_jumlah_penduduk\views\laporan2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{055A81CB-BFF2-41C8-9D99-AFBA2D810244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB3CFAF-9C97-4A3B-B26F-F963FE89FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{089F2823-1E50-4F7A-8A46-95F055E1127A}"/>
   </bookViews>
@@ -114,9 +114,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -125,6 +122,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11FEFA-B46D-4046-A435-C9F3F7C4FC0B}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,207 +474,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/views/laporan2/kabupaten.xlsx
+++ b/views/laporan2/kabupaten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\yii2_laporan_jumlah_penduduk\views\laporan2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB3CFAF-9C97-4A3B-B26F-F963FE89FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FD14EF-4E37-4B95-9196-44E62EEA16BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{089F2823-1E50-4F7A-8A46-95F055E1127A}"/>
   </bookViews>
@@ -117,13 +117,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11FEFA-B46D-4046-A435-C9F3F7C4FC0B}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,16 +474,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -497,364 +497,364 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
